--- a/excel/collective/zestawy_dla_uczniow/zestaw_020.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 1</t>
   </si>
@@ -61,487 +61,502 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Jakub Zieliński</t>
-  </si>
-  <si>
-    <t>Antoni Krawczyk</t>
+    <t>Amelia Wójcik</t>
+  </si>
+  <si>
+    <t>Maja Wilk</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>Aleksander Piotrowski</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>7,70</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>4,50</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,40</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,60</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>14,30</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>28,93</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>2,24</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>13,08</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>17,46</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>19,11</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>26,27</t>
+  </si>
+  <si>
+    <t>28,32</t>
+  </si>
+  <si>
+    <t>27,50</t>
+  </si>
+  <si>
+    <t>30,95</t>
+  </si>
+  <si>
+    <t>7,58</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>12,79</t>
+  </si>
+  <si>
+    <t>23,44</t>
+  </si>
+  <si>
+    <t>13,18</t>
+  </si>
+  <si>
+    <t>20,66</t>
+  </si>
+  <si>
+    <t>16,93</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
+  </si>
+  <si>
+    <t>24.11.1991</t>
+  </si>
+  <si>
+    <t>9 941,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Rogalska</t>
+  </si>
+  <si>
+    <t>08.10.2001</t>
+  </si>
+  <si>
+    <t>9 943,00 zł</t>
   </si>
   <si>
     <t>Kacper Nowak</t>
   </si>
   <si>
-    <t>Natalia Kubiak</t>
-  </si>
-  <si>
-    <t>Anna Bednarska</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>15,80</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>5,70</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,80</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,10</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>6,10</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>17,87</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>8,66</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>25,83</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>16,45</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>30,03</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>9,45</t>
-  </si>
-  <si>
-    <t>17,75</t>
-  </si>
-  <si>
-    <t>24,54</t>
-  </si>
-  <si>
-    <t>13,15</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>13,04</t>
-  </si>
-  <si>
-    <t>24,75</t>
-  </si>
-  <si>
-    <t>30,13</t>
-  </si>
-  <si>
-    <t>9,32</t>
-  </si>
-  <si>
-    <t>24,61</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Mazur</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
+    <t>02.01.1995</t>
+  </si>
+  <si>
+    <t>10 444,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Olszewska</t>
+  </si>
+  <si>
+    <t>03.12.1987</t>
+  </si>
+  <si>
+    <t>9 194,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
+  </si>
+  <si>
+    <t>01.09.2003</t>
+  </si>
+  <si>
+    <t>5 508,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Maciejewska</t>
+  </si>
+  <si>
+    <t>06.09.2000</t>
+  </si>
+  <si>
+    <t>4 707,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>23.12.1990</t>
+  </si>
+  <si>
+    <t>3 301,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Wójcik</t>
+  </si>
+  <si>
+    <t>13.08.1989</t>
+  </si>
+  <si>
+    <t>4 349,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Malinowska</t>
+  </si>
+  <si>
+    <t>18.04.2005</t>
+  </si>
+  <si>
+    <t>9 279,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Woźniak</t>
+  </si>
+  <si>
+    <t>05.08.1985</t>
+  </si>
+  <si>
+    <t>10 348,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Malinowska</t>
+  </si>
+  <si>
+    <t>19.04.1993</t>
+  </si>
+  <si>
+    <t>7 010,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Król</t>
+  </si>
+  <si>
+    <t>09.04.2000</t>
+  </si>
+  <si>
+    <t>11 811,00 zł</t>
   </si>
   <si>
     <t>Jakub Kamiński</t>
   </si>
   <si>
-    <t>08.09.1982</t>
-  </si>
-  <si>
-    <t>7 043,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Piekarska</t>
-  </si>
-  <si>
-    <t>20.12.2004</t>
-  </si>
-  <si>
-    <t>11 872,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Lis</t>
-  </si>
-  <si>
-    <t>27.12.1989</t>
-  </si>
-  <si>
-    <t>2 912,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Nowak</t>
-  </si>
-  <si>
-    <t>12.12.1993</t>
-  </si>
-  <si>
-    <t>14 062,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Sikorska</t>
-  </si>
-  <si>
-    <t>04.09.1982</t>
-  </si>
-  <si>
-    <t>14 925,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Kubiak</t>
-  </si>
-  <si>
-    <t>05.08.1981</t>
-  </si>
-  <si>
-    <t>6 314,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Grabowski</t>
-  </si>
-  <si>
-    <t>21.06.2002</t>
-  </si>
-  <si>
-    <t>6 095,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Zawadzka</t>
-  </si>
-  <si>
-    <t>08.01.2005</t>
-  </si>
-  <si>
-    <t>4 754,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Woźniak</t>
-  </si>
-  <si>
-    <t>22.01.1998</t>
-  </si>
-  <si>
-    <t>7 972,00 zł</t>
-  </si>
-  <si>
-    <t>22.12.1992</t>
-  </si>
-  <si>
-    <t>13 772,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Kamiński</t>
-  </si>
-  <si>
-    <t>18.11.1992</t>
-  </si>
-  <si>
-    <t>10 752,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Krawczyk</t>
-  </si>
-  <si>
-    <t>24.04.1976</t>
-  </si>
-  <si>
-    <t>2 819,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Jankowski</t>
-  </si>
-  <si>
-    <t>20.11.1986</t>
-  </si>
-  <si>
-    <t>11 975,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Maciejewska</t>
-  </si>
-  <si>
-    <t>03.05.1987</t>
-  </si>
-  <si>
-    <t>9 352,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Olszewska</t>
-  </si>
-  <si>
-    <t>10.03.1981</t>
-  </si>
-  <si>
-    <t>5 920,00 zł</t>
+    <t>13.05.1999</t>
+  </si>
+  <si>
+    <t>11 770,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>09.03.1990</t>
+  </si>
+  <si>
+    <t>10 760,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Szymański</t>
+  </si>
+  <si>
+    <t>22.08.1998</t>
+  </si>
+  <si>
+    <t>14 718,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Borkowska</t>
+  </si>
+  <si>
+    <t>21.03.1998</t>
+  </si>
+  <si>
+    <t>14 189,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -613,319 +628,301 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 166,00 zł</t>
+  </si>
+  <si>
+    <t>1 516,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 373,00 zł</t>
+  </si>
+  <si>
+    <t>1 744,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>1 380,00 zł</t>
+  </si>
+  <si>
+    <t>1 656,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 238,00 zł</t>
+  </si>
+  <si>
+    <t>1 609,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>872,00 zł</t>
+  </si>
+  <si>
+    <t>1 090,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 423,00 zł</t>
+  </si>
+  <si>
+    <t>1 565,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 215,00 zł</t>
+  </si>
+  <si>
+    <t>1 616,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 266,00 zł</t>
+  </si>
+  <si>
+    <t>1 545,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 397,00 zł</t>
+  </si>
+  <si>
+    <t>1 690,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 343,00 zł</t>
+  </si>
+  <si>
+    <t>1 800,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 304,00 zł</t>
+  </si>
+  <si>
+    <t>1 617,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 223,00 zł</t>
+  </si>
+  <si>
+    <t>1 676,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 468,00 zł</t>
+  </si>
+  <si>
+    <t>1 644,00 zł</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 344,00 zł</t>
+  </si>
+  <si>
+    <t>1 774,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 500,00 zł</t>
+  </si>
+  <si>
+    <t>1 770,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>1 097,00 zł</t>
+  </si>
+  <si>
+    <t>1 448,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 202,00 zł</t>
+  </si>
+  <si>
+    <t>1 394,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>1 171,00 zł</t>
+  </si>
+  <si>
+    <t>1 487,00 zł</t>
+  </si>
+  <si>
+    <t>1 446,00 zł</t>
+  </si>
+  <si>
+    <t>1 497,00 zł</t>
+  </si>
+  <si>
+    <t>1 737,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>578,00 zł</t>
+  </si>
+  <si>
+    <t>728,00 zł</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>630,00 zł</t>
+  </si>
+  <si>
+    <t>775,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>793,00 zł</t>
+  </si>
+  <si>
+    <t>1 102,00 zł</t>
+  </si>
+  <si>
+    <t>1 306,00 zł</t>
+  </si>
+  <si>
+    <t>1 528,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 481,00 zł</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 149,00 zł</t>
-  </si>
-  <si>
-    <t>1 390,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
+    <t>997,00 zł</t>
+  </si>
+  <si>
+    <t>1 147,00 zł</t>
   </si>
   <si>
     <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 147,00 zł</t>
-  </si>
-  <si>
-    <t>1 285,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 049,00 zł</t>
-  </si>
-  <si>
-    <t>1 469,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>757,00 zł</t>
-  </si>
-  <si>
-    <t>977,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 413,00 zł</t>
-  </si>
-  <si>
-    <t>1 554,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>730,00 zł</t>
-  </si>
-  <si>
-    <t>964,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 460,00 zł</t>
-  </si>
-  <si>
-    <t>1 752,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 408,00 zł</t>
-  </si>
-  <si>
-    <t>1 859,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>1 318,00 zł</t>
-  </si>
-  <si>
-    <t>1 568,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
-    <t>1 544,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 229,00 zł</t>
-  </si>
-  <si>
-    <t>1 463,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 263,00 zł</t>
-  </si>
-  <si>
-    <t>1 743,00 zł</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 171,00 zł</t>
-  </si>
-  <si>
-    <t>1 628,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 113,00 zł</t>
-  </si>
-  <si>
-    <t>1 347,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>906,00 zł</t>
-  </si>
-  <si>
-    <t>1 087,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 175,00 zł</t>
-  </si>
-  <si>
-    <t>1 645,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>565,00 zł</t>
-  </si>
-  <si>
-    <t>729,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>902,00 zł</t>
-  </si>
-  <si>
-    <t>1 164,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 148,00 zł</t>
-  </si>
-  <si>
-    <t>1 424,00 zł</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 047,00 zł</t>
-  </si>
-  <si>
-    <t>1 361,00 zł</t>
-  </si>
-  <si>
-    <t>999,00 zł</t>
-  </si>
-  <si>
-    <t>1 399,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>1 070,00 zł</t>
-  </si>
-  <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 332,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>1 207,00 zł</t>
-  </si>
-  <si>
-    <t>1 569,00 zł</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>833,00 zł</t>
-  </si>
-  <si>
-    <t>1 041,00 zł</t>
-  </si>
-  <si>
-    <t>900,00 zł</t>
-  </si>
-  <si>
-    <t>1 188,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 276,00 zł</t>
-  </si>
-  <si>
-    <t>1 595,00 zł</t>
-  </si>
-  <si>
-    <t>525,00 zł</t>
-  </si>
-  <si>
-    <t>719,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1482,19 +1479,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1503,19 +1500,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1524,19 +1521,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1545,19 +1542,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1566,19 +1563,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1590,13 +1587,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>4</v>
@@ -1608,19 +1605,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1629,19 +1626,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1650,16 +1647,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -1671,19 +1668,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1692,16 +1689,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
@@ -1713,19 +1710,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1847,7 +1844,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1862,7 +1859,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1877,7 +1874,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1892,7 +1889,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1907,7 +1904,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1922,7 +1919,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2039,7 +2036,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2051,7 +2048,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2075,7 +2072,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2087,7 +2084,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2135,7 +2132,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2147,7 +2144,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2156,10 +2153,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2168,10 +2165,10 @@
         <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2180,10 +2177,10 @@
         <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2191,7 +2188,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2228,10 +2225,10 @@
         <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2240,10 +2237,10 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2252,10 +2249,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2264,10 +2261,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2276,22 +2273,22 @@
         <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2337,53 +2334,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2395,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2404,43 +2401,43 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3</v>
-      </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2448,31 +2445,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2480,31 +2477,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2512,31 +2509,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2544,31 +2541,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2585,22 +2582,22 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2614,25 +2611,25 @@
         <v>117</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
       <c r="H18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2643,25 +2640,25 @@
         <v>118</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
-      </c>
       <c r="G19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
         <v>3</v>
@@ -2671,7 +2668,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2687,7 +2684,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2718,10 +2715,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A30" sqref="A30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2743,232 +2740,243 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>178</v>
+      <c r="A29" s="13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2986,10 +2994,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3005,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3015,75 +3023,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3091,22 +3099,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3114,22 +3122,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3137,22 +3145,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3160,22 +3168,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3183,22 +3191,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3206,22 +3214,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3229,22 +3237,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3252,22 +3260,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3275,22 +3283,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3298,22 +3306,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3321,22 +3329,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3344,22 +3352,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3367,22 +3375,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3390,22 +3398,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3413,22 +3421,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3436,22 +3444,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3459,22 +3467,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3482,22 +3490,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3505,22 +3513,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3528,22 +3536,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3551,22 +3559,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3574,22 +3582,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3597,22 +3605,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3620,22 +3628,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3643,22 +3651,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3666,136 +3674,67 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="A44" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>301</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>240</v>
+      <c r="B45" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>174</v>
+      <c r="A47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>304</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>305</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_020.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>7,70</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,50</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,60</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,30</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>0,90</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>28,93</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>2,24</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>13,08</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>17,46</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>19,11</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>26,27</t>
-  </si>
-  <si>
-    <t>28,32</t>
-  </si>
-  <si>
-    <t>27,50</t>
-  </si>
-  <si>
-    <t>30,95</t>
-  </si>
-  <si>
-    <t>7,58</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>12,79</t>
-  </si>
-  <si>
-    <t>23,44</t>
-  </si>
-  <si>
-    <t>13,18</t>
-  </si>
-  <si>
-    <t>20,66</t>
-  </si>
-  <si>
-    <t>16,93</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,144 +343,96 @@
     <t>24.11.1991</t>
   </si>
   <si>
-    <t>9 941,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Rogalska</t>
   </si>
   <si>
     <t>08.10.2001</t>
   </si>
   <si>
-    <t>9 943,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Nowak</t>
   </si>
   <si>
     <t>02.01.1995</t>
   </si>
   <si>
-    <t>10 444,00 zł</t>
-  </si>
-  <si>
     <t>Maja Olszewska</t>
   </si>
   <si>
     <t>03.12.1987</t>
   </si>
   <si>
-    <t>9 194,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Maciejewska</t>
   </si>
   <si>
     <t>01.09.2003</t>
   </si>
   <si>
-    <t>5 508,00 zł</t>
-  </si>
-  <si>
     <t>Julia Maciejewska</t>
   </si>
   <si>
     <t>06.09.2000</t>
   </si>
   <si>
-    <t>4 707,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Kaźmierczak</t>
   </si>
   <si>
     <t>23.12.1990</t>
   </si>
   <si>
-    <t>3 301,00 zł</t>
-  </si>
-  <si>
     <t>Adam Wójcik</t>
   </si>
   <si>
     <t>13.08.1989</t>
   </si>
   <si>
-    <t>4 349,00 zł</t>
-  </si>
-  <si>
     <t>Anna Malinowska</t>
   </si>
   <si>
     <t>18.04.2005</t>
   </si>
   <si>
-    <t>9 279,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Woźniak</t>
   </si>
   <si>
     <t>05.08.1985</t>
   </si>
   <si>
-    <t>10 348,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Malinowska</t>
   </si>
   <si>
     <t>19.04.1993</t>
   </si>
   <si>
-    <t>7 010,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Król</t>
   </si>
   <si>
     <t>09.04.2000</t>
   </si>
   <si>
-    <t>11 811,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kamiński</t>
   </si>
   <si>
     <t>13.05.1999</t>
   </si>
   <si>
-    <t>11 770,00 zł</t>
-  </si>
-  <si>
     <t>Maja Kaźmierczak</t>
   </si>
   <si>
     <t>09.03.1990</t>
   </si>
   <si>
-    <t>10 760,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Szymański</t>
   </si>
   <si>
     <t>22.08.1998</t>
   </si>
   <si>
-    <t>14 718,00 zł</t>
-  </si>
-  <si>
     <t>Lena Borkowska</t>
   </si>
   <si>
     <t>21.03.1998</t>
   </si>
   <si>
-    <t>14 189,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -571,9 +445,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -634,12 +505,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 166,00 zł</t>
-  </si>
-  <si>
-    <t>1 516,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -652,12 +517,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>1 744,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -667,12 +526,6 @@
     <t>maj</t>
   </si>
   <si>
-    <t>1 380,00 zł</t>
-  </si>
-  <si>
-    <t>1 656,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -682,12 +535,6 @@
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -700,12 +547,6 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>872,00 zł</t>
-  </si>
-  <si>
-    <t>1 090,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -718,12 +559,6 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>1 565,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -736,190 +571,76 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 616,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
-    <t>1 545,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 397,00 zł</t>
-  </si>
-  <si>
-    <t>1 690,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 343,00 zł</t>
-  </si>
-  <si>
-    <t>1 800,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 304,00 zł</t>
-  </si>
-  <si>
-    <t>1 617,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 223,00 zł</t>
-  </si>
-  <si>
-    <t>1 676,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
-    <t>1 644,00 zł</t>
-  </si>
-  <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>1 774,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 500,00 zł</t>
-  </si>
-  <si>
-    <t>1 770,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>1 097,00 zł</t>
-  </si>
-  <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 202,00 zł</t>
-  </si>
-  <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
-    <t>1 171,00 zł</t>
-  </si>
-  <si>
-    <t>1 487,00 zł</t>
-  </si>
-  <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
-    <t>1 497,00 zł</t>
-  </si>
-  <si>
-    <t>1 737,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>578,00 zł</t>
-  </si>
-  <si>
-    <t>728,00 zł</t>
-  </si>
-  <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>630,00 zł</t>
-  </si>
-  <si>
-    <t>775,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>793,00 zł</t>
-  </si>
-  <si>
-    <t>1 102,00 zł</t>
-  </si>
-  <si>
-    <t>1 306,00 zł</t>
-  </si>
-  <si>
-    <t>1 528,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 481,00 zł</t>
-  </si>
-  <si>
     <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>997,00 zł</t>
-  </si>
-  <si>
-    <t>1 147,00 zł</t>
   </si>
   <si>
     <t>podlaskie</t>
@@ -944,7 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1001,14 +724,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1019,8 +742,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1051,30 +774,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,7 +1101,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,25 +1176,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1493,7 +1217,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1514,7 +1238,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1535,7 +1259,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1556,7 +1280,7 @@
       <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1577,7 +1301,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1598,7 +1322,7 @@
       <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1619,7 +1343,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1640,7 +1364,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1661,7 +1385,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1682,7 +1406,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1703,7 +1427,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1724,27 +1448,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1778,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1798,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1838,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7.7</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4.5</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.4</v>
       </c>
       <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.6</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14.3</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.9</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1963,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1988,113 +1702,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>28.93</v>
       </c>
       <c r="C15" s="3">
         <v>36</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2.24</v>
       </c>
       <c r="C16" s="3">
         <v>33</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>13.08</v>
       </c>
       <c r="C17" s="3">
         <v>50</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>17.46</v>
       </c>
       <c r="C18" s="3">
         <v>7</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>19.11</v>
       </c>
       <c r="C19" s="3">
         <v>26</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2103,94 +1817,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>26.27</v>
       </c>
       <c r="C24" s="3">
         <v>44</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>28.32</v>
       </c>
       <c r="C25" s="3">
         <v>50</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>27.5</v>
       </c>
       <c r="C26" s="3">
         <v>48</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>30.95</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>7.58</v>
       </c>
       <c r="C28" s="3">
         <v>45</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2199,98 +1913,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>12.79</v>
       </c>
       <c r="C33" s="3">
         <v>36</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>23.44</v>
       </c>
       <c r="C34" s="3">
         <v>12</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>13.18</v>
       </c>
       <c r="C35" s="3">
         <v>12</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>20.66</v>
       </c>
       <c r="C36" s="3">
         <v>49</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>16.93</v>
       </c>
       <c r="C37" s="3">
         <v>48</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2313,7 +2027,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2333,90 +2047,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2439,16 +2153,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -2471,16 +2185,16 @@
       <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2503,16 +2217,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2535,16 +2249,16 @@
       <c r="J15" s="3">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2567,16 +2281,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2599,16 +2313,16 @@
       <c r="J17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
@@ -2631,16 +2345,16 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
@@ -2663,40 +2377,40 @@
       <c r="J19" s="3">
         <v>3</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2729,255 +2443,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9941</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9943</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10444</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9194</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5508</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4707</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3301</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4349</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9279</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10348</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7010</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11811</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>11770</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10760</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>14718</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="7">
+        <v>14189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>179</v>
+      <c r="A29" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3012,86 +2720,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>184</v>
+      <c r="A1" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>201</v>
+      <c r="A15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3099,22 +2807,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1166</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1516</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3122,22 +2830,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1373</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1744</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3145,22 +2853,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>216</v>
+        <v>160</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1380</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1656</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3168,22 +2876,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1238</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1609</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3191,22 +2899,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="7">
+        <v>872</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1090</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3214,22 +2922,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>233</v>
+        <v>178</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1423</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1565</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3237,22 +2945,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1215</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1616</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3260,22 +2968,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>243</v>
+        <v>184</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1266</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1545</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3283,22 +2991,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>247</v>
+        <v>186</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1397</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1690</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3306,22 +3014,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>251</v>
+        <v>188</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1343</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1800</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3329,22 +3037,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>255</v>
+        <v>190</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1304</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1617</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3352,22 +3060,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>259</v>
+        <v>192</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1223</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1676</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3375,22 +3083,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>262</v>
+        <v>184</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1468</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1644</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3398,22 +3106,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>265</v>
+        <v>194</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1344</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1774</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3421,22 +3129,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>268</v>
+        <v>195</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1500</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1770</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3444,22 +3152,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>271</v>
+        <v>182</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1097</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1448</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3467,22 +3175,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>275</v>
+        <v>198</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1202</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1394</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3490,22 +3198,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>278</v>
+        <v>188</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1171</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1487</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3513,22 +3221,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>279</v>
+        <v>198</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1166</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1446</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3536,22 +3244,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>281</v>
+        <v>194</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1497</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1737</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3559,22 +3267,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>284</v>
+        <v>186</v>
+      </c>
+      <c r="D36" s="7">
+        <v>578</v>
+      </c>
+      <c r="E36" s="7">
+        <v>728</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3582,22 +3290,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>287</v>
+        <v>201</v>
+      </c>
+      <c r="D37" s="7">
+        <v>630</v>
+      </c>
+      <c r="E37" s="7">
+        <v>775</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3605,22 +3313,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>291</v>
+        <v>203</v>
+      </c>
+      <c r="D38" s="7">
+        <v>793</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1102</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3628,22 +3336,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>293</v>
+        <v>192</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1306</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1528</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3651,22 +3359,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>296</v>
+        <v>205</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1097</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1481</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3674,68 +3382,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>299</v>
+        <v>206</v>
+      </c>
+      <c r="D41" s="7">
+        <v>997</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1147</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>179</v>
+      <c r="A44" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>301</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>302</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>303</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>304</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>305</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_020.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_020.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Amelia Wójcik</t>
-  </si>
-  <si>
-    <t>Maja Wilk</t>
-  </si>
-  <si>
-    <t>Kacper Woźniak</t>
-  </si>
-  <si>
-    <t>Maja Czarnecka</t>
-  </si>
-  <si>
-    <t>Aleksander Piotrowski</t>
+    <t>Antoni Grabowski</t>
+  </si>
+  <si>
+    <t>Julia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Jan Piotrowski</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>Szymon Nowak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 20 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
+    <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,49 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Anna</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Julia</t>
   </si>
   <si>
     <t>Sikorska</t>
   </si>
   <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -337,115 +338,106 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>Adam Kowalczyk</t>
+  </si>
+  <si>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>Antoni Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>Julia Zawadzka</t>
+  </si>
+  <si>
+    <t>Jan Jankowski</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Kacper Mazur</t>
+  </si>
+  <si>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>Adam Grabowski</t>
+  </si>
+  <si>
+    <t>Maja Malinowska</t>
+  </si>
+  <si>
+    <t>Anna Wilk</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
     <t>Maja Król</t>
   </si>
   <si>
-    <t>24.11.1991</t>
-  </si>
-  <si>
-    <t>Oliwia Rogalska</t>
-  </si>
-  <si>
-    <t>08.10.2001</t>
-  </si>
-  <si>
-    <t>Kacper Nowak</t>
-  </si>
-  <si>
-    <t>02.01.1995</t>
-  </si>
-  <si>
-    <t>Maja Olszewska</t>
-  </si>
-  <si>
-    <t>03.12.1987</t>
-  </si>
-  <si>
-    <t>Natalia Maciejewska</t>
-  </si>
-  <si>
-    <t>01.09.2003</t>
-  </si>
-  <si>
-    <t>Julia Maciejewska</t>
-  </si>
-  <si>
-    <t>06.09.2000</t>
-  </si>
-  <si>
-    <t>Oliwia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>23.12.1990</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>13.08.1989</t>
-  </si>
-  <si>
-    <t>Anna Malinowska</t>
-  </si>
-  <si>
-    <t>18.04.2005</t>
-  </si>
-  <si>
-    <t>Szymon Woźniak</t>
-  </si>
-  <si>
-    <t>05.08.1985</t>
-  </si>
-  <si>
-    <t>Emilia Malinowska</t>
-  </si>
-  <si>
-    <t>19.04.1993</t>
-  </si>
-  <si>
-    <t>Emilia Król</t>
-  </si>
-  <si>
-    <t>09.04.2000</t>
-  </si>
-  <si>
-    <t>Jakub Kamiński</t>
-  </si>
-  <si>
-    <t>13.05.1999</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>09.03.1990</t>
-  </si>
-  <si>
-    <t>Antoni Szymański</t>
-  </si>
-  <si>
-    <t>22.08.1998</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>21.03.1998</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Szymon Dąbrowski</t>
+  </si>
+  <si>
+    <t>Jakub Piotrowski</t>
+  </si>
+  <si>
+    <t>Kacper Piotrowski</t>
+  </si>
+  <si>
+    <t>Julia Piekarska</t>
+  </si>
+  <si>
+    <t>Jan Wojciechowski</t>
+  </si>
+  <si>
+    <t>Filip Nowak</t>
+  </si>
+  <si>
+    <t>Filip Woźniak</t>
+  </si>
+  <si>
+    <t>Wojciech Zieliński</t>
+  </si>
+  <si>
+    <t>Antoni Lewandowski</t>
+  </si>
+  <si>
+    <t>Szymon Kamiński</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -499,151 +491,151 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
     <t>luty</t>
   </si>
   <si>
-    <t>Głośnik Bluetooth</t>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
   </si>
   <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
+    <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -715,7 +707,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +730,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -785,13 +771,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1098,7 +1083,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1215,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1224,13 +1209,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -1248,16 +1233,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="F19" s="3">
         <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1266,19 +1251,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1287,19 +1272,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1308,19 +1293,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1329,19 +1314,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1350,19 +1335,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
         <v>6</v>
       </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1371,19 +1356,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1392,19 +1377,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
         <v>5</v>
       </c>
-      <c r="E26" s="3">
-        <v>6</v>
-      </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1416,16 +1401,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
         <v>4</v>
       </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1440,13 +1425,13 @@
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1459,6 +1444,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1492,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1512,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1522,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7.7</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4.5</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3.3</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.4</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5.3</v>
       </c>
       <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.6</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5.8</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14.3</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>16.1</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.9</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>14.6</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1661,10 +1652,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1677,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1702,27 +1693,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1730,85 +1721,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>28.93</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>8.6</v>
       </c>
       <c r="C15" s="3">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>2.24</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.65</v>
       </c>
       <c r="C16" s="3">
-        <v>33</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>13.08</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15.37</v>
       </c>
       <c r="C17" s="3">
-        <v>50</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>17.46</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>30.82</v>
       </c>
       <c r="C18" s="3">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>19.11</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>30.36</v>
       </c>
       <c r="C19" s="3">
-        <v>26</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1817,8 +1808,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1826,85 +1817,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>26.27</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17.02</v>
       </c>
       <c r="C24" s="3">
-        <v>44</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>28.32</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>7.33</v>
       </c>
       <c r="C25" s="3">
-        <v>50</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>27.5</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2.63</v>
       </c>
       <c r="C26" s="3">
-        <v>48</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>30.95</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>25.45</v>
       </c>
       <c r="C27" s="3">
-        <v>50</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>7.58</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>21.31</v>
       </c>
       <c r="C28" s="3">
-        <v>45</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1913,8 +1904,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1922,89 +1913,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>12.79</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>6.0099999999999998</v>
       </c>
       <c r="C33" s="3">
-        <v>36</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>23.44</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>12.24</v>
       </c>
       <c r="C34" s="3">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>13.18</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2.74</v>
       </c>
       <c r="C35" s="3">
-        <v>12</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>20.66</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18.16</v>
       </c>
       <c r="C36" s="3">
-        <v>49</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>16.93</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1.97</v>
       </c>
       <c r="C37" s="3">
-        <v>48</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2024,10 +2023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L21"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2047,111 +2046,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2159,22 +2158,22 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
@@ -2183,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2191,10 +2190,10 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2203,19 +2202,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2223,31 +2222,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2255,13 +2254,13 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -2270,16 +2269,16 @@
         <v>3</v>
       </c>
       <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>3</v>
-      </c>
-      <c r="H16" s="3">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3">
-        <v>5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2287,136 +2286,72 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6</v>
-      </c>
       <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
         <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2429,10 +2364,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2443,12 +2378,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2492,200 +2427,167 @@
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9941</v>
+      <c r="B11" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3626</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>9943</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7711</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>10444</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>9194</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9498</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5508</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4505</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4707</v>
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10897</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3301</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6840</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4349</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C18" s="8">
+        <v>11052</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9279</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C19" s="8">
+        <v>13006</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10348</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C20" s="8">
+        <v>13338</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7010</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5942</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11811</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C22" s="8">
+        <v>13050</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>11770</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10760</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>14718</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14918</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
-        <v>14189</v>
-      </c>
+      <c r="A26" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="6"/>
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2702,10 +2604,185 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>135</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>121</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>144</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>192</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>178</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>168</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>133</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>154</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="3">
+        <v>91</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3">
+        <v>116</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3">
+        <v>138</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="3">
+        <v>187</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2720,86 +2797,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>141</v>
+      <c r="A1" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2807,22 +2884,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="8">
+        <v>884</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1105</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1166</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1516</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2830,22 +2907,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1373</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1744</v>
+        <v>161</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1487</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1725</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2853,22 +2930,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1380</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1656</v>
+        <v>164</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1206</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1616</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2876,22 +2953,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1238</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1609</v>
+        <v>167</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1436</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1709</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2899,22 +2976,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="7">
-        <v>872</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1090</v>
+        <v>170</v>
+      </c>
+      <c r="D20" s="8">
+        <v>796</v>
+      </c>
+      <c r="E20" s="8">
+        <v>931</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2922,22 +2999,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1423</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1565</v>
+        <v>170</v>
+      </c>
+      <c r="D21" s="8">
+        <v>678</v>
+      </c>
+      <c r="E21" s="8">
+        <v>834</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2945,22 +3022,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1215</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1616</v>
+        <v>175</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1152</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1382</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2968,22 +3045,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1266</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1545</v>
+        <v>179</v>
+      </c>
+      <c r="D23" s="8">
+        <v>553</v>
+      </c>
+      <c r="E23" s="8">
+        <v>708</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2991,22 +3068,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1397</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1690</v>
+        <v>182</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1107</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1417</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3014,22 +3091,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1343</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1800</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1210</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1658</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3037,22 +3114,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1304</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1617</v>
+        <v>164</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1332</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1518</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3060,22 +3137,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1223</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1676</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1431</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1918</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3083,22 +3160,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1468</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1644</v>
+        <v>192</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1258</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1510</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3106,22 +3183,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D29" s="7">
-        <v>1344</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1774</v>
+      <c r="D29" s="8">
+        <v>739</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1035</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3129,22 +3206,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1500</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1770</v>
+        <v>161</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1131</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1425</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3152,22 +3229,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1097</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1448</v>
+        <v>175</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1396</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1759</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3175,22 +3252,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1202</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1394</v>
+        <v>189</v>
+      </c>
+      <c r="D32" s="8">
+        <v>707</v>
+      </c>
+      <c r="E32" s="8">
+        <v>834</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3198,22 +3275,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1171</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1487</v>
+        <v>197</v>
+      </c>
+      <c r="D33" s="8">
+        <v>533</v>
+      </c>
+      <c r="E33" s="8">
+        <v>720</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3221,22 +3298,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1166</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1446</v>
+        <v>157</v>
+      </c>
+      <c r="D34" s="8">
+        <v>777</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1026</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3244,22 +3321,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1497</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1737</v>
+        <v>179</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1694</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3267,22 +3344,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="7">
-        <v>578</v>
-      </c>
-      <c r="E36" s="7">
-        <v>728</v>
+        <v>201</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1127</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1431</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3290,22 +3367,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="7">
-        <v>630</v>
-      </c>
-      <c r="E37" s="7">
-        <v>775</v>
+        <v>170</v>
+      </c>
+      <c r="D37" s="8">
+        <v>639</v>
+      </c>
+      <c r="E37" s="8">
+        <v>843</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3313,22 +3390,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="7">
-        <v>793</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1102</v>
+        <v>202</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1128</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1320</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3336,22 +3413,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1306</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1528</v>
+        <v>197</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1170</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1580</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3359,81 +3436,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1224</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1628</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>205</v>
       </c>
-      <c r="D40" s="7">
-        <v>1097</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1481</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="7">
-        <v>997</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1147</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>211</v>
-      </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
